--- a/Labsheet_template.xlsx
+++ b/Labsheet_template.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="27760" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="540" yWindow="1140" windowWidth="27760" windowHeight="16240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="template" sheetId="1" r:id="rId1"/>
+    <sheet name="template1" sheetId="1" r:id="rId1"/>
+    <sheet name="template2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="200">
   <si>
     <t>Sample ID</t>
   </si>
@@ -597,6 +598,36 @@
   </si>
   <si>
     <t>KN24</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Plot number</t>
+  </si>
+  <si>
+    <t>Sandnes</t>
+  </si>
+  <si>
+    <t>Cultural</t>
+  </si>
+  <si>
+    <t>Natural</t>
+  </si>
+  <si>
+    <t>Iffiartafik</t>
+  </si>
+  <si>
+    <t>Qoornoq</t>
+  </si>
+  <si>
+    <t>Ersaa</t>
+  </si>
+  <si>
+    <t>Kangeq</t>
   </si>
 </sst>
 </file>
@@ -628,7 +659,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -645,16 +676,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -934,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A190"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1893,4 +1948,693 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B32" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B36" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B38" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C40" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" t="s">
+        <v>195</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B45" t="s">
+        <v>195</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C46" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" t="s">
+        <v>195</v>
+      </c>
+      <c r="C47" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B48" t="s">
+        <v>195</v>
+      </c>
+      <c r="C48" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C49" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B50" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B51" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" t="s">
+        <v>194</v>
+      </c>
+      <c r="C55" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B56" t="s">
+        <v>195</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B57" t="s">
+        <v>195</v>
+      </c>
+      <c r="C57" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B58" t="s">
+        <v>195</v>
+      </c>
+      <c r="C58" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B59" t="s">
+        <v>195</v>
+      </c>
+      <c r="C59" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B60" t="s">
+        <v>195</v>
+      </c>
+      <c r="C60" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" s="6">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>